--- a/runs/run582/NotionalETEOutput582.xlsx
+++ b/runs/run582/NotionalETEOutput582.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER2_State_Update</t>
+    <t>Missile_HELLMASKER1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER2_483.MISSILE_HELLMASKER2_483</t>
+    <t>MISSILE_HELLMASKER1_107.MISSILE_HELLMASKER1_107</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER2</t>
+    <t>MISSILE_HELLMASKER1</t>
   </si>
 </sst>
 </file>
@@ -471,19 +471,19 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>314.4773575035766</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-85.93297103011257</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1057.293501221523</v>
       </c>
       <c r="I2">
-        <v>-1617.062866144572</v>
+        <v>-354.4417373215314</v>
       </c>
       <c r="J2">
-        <v>1329.663906504346</v>
+        <v>2213.339346623731</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -506,22 +506,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>314.4773575035766</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>-85.93297103011257</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1057.293501221523</v>
       </c>
       <c r="I3">
-        <v>-1585.137739353241</v>
+        <v>-347.4441136415638</v>
       </c>
       <c r="J3">
-        <v>1297.318776069054</v>
+        <v>2159.498109365275</v>
       </c>
       <c r="K3">
-        <v>138.5781939866633</v>
+        <v>253.7566116074478</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,22 +541,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>314.4773575035766</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>-85.93297103011257</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1057.293501221523</v>
       </c>
       <c r="I4">
-        <v>-1552.426485685252</v>
+        <v>-340.2741799161728</v>
       </c>
       <c r="J4">
-        <v>1264.973645633763</v>
+        <v>2105.656872106818</v>
       </c>
       <c r="K4">
-        <v>270.2462440015145</v>
+        <v>494.8597553815987</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,22 +576,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>314.4773575035766</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>-85.93297103011257</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1057.293501221523</v>
       </c>
       <c r="I5">
-        <v>-1518.90974748949</v>
+        <v>-332.9276931690121</v>
       </c>
       <c r="J5">
-        <v>1232.628515198472</v>
+        <v>2051.815634848362</v>
       </c>
       <c r="K5">
-        <v>395.0041500445548</v>
+        <v>723.3094313224542</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,22 +611,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>314.4773575035766</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-85.93297103011257</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1057.293501221523</v>
       </c>
       <c r="I6">
-        <v>-1484.567690450492</v>
+        <v>-325.4003059443465</v>
       </c>
       <c r="J6">
-        <v>1200.283384763181</v>
+        <v>1997.974397589906</v>
       </c>
       <c r="K6">
-        <v>512.8519121157833</v>
+        <v>939.1056394300131</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -646,22 +646,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>314.4773575035766</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>-85.93297103011257</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1057.293501221523</v>
       </c>
       <c r="I7">
-        <v>-1449.379991851021</v>
+        <v>-317.6875637343427</v>
       </c>
       <c r="J7">
-        <v>1167.93825432789</v>
+        <v>1944.13316033145</v>
       </c>
       <c r="K7">
-        <v>623.7895302152009</v>
+        <v>1142.248379704277</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -681,22 +681,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>314.4773575035766</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>-85.93297103011257</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1057.293501221523</v>
       </c>
       <c r="I8">
-        <v>-1413.325828545627</v>
+        <v>-309.7849023430103</v>
       </c>
       <c r="J8">
-        <v>1135.593123892599</v>
+        <v>1890.291923072993</v>
       </c>
       <c r="K8">
-        <v>727.8170043428069</v>
+        <v>1332.737652145245</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,22 +716,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>314.4773575035766</v>
       </c>
       <c r="G9">
-        <v>-156.2796033873286</v>
+        <v>-85.93297103011257</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1057.293501221523</v>
       </c>
       <c r="I9">
-        <v>-1376.38386463806</v>
+        <v>-301.6876451852315</v>
       </c>
       <c r="J9">
-        <v>1103.247993457308</v>
+        <v>1836.450685814537</v>
       </c>
       <c r="K9">
-        <v>824.9343344986015</v>
+        <v>1510.573456752916</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>247.7025459410617</v>
+        <v>314.4773575035766</v>
       </c>
       <c r="G10">
-        <v>-130.473441886652</v>
+        <v>-71.74301865904162</v>
       </c>
       <c r="H10">
-        <v>933.0041077620884</v>
+        <v>1057.293501221523</v>
       </c>
       <c r="I10">
-        <v>-1338.532238855252</v>
+        <v>-293.3910005192825</v>
       </c>
       <c r="J10">
-        <v>1070.902863022017</v>
+        <v>1782.60944855608</v>
       </c>
       <c r="K10">
-        <v>915.1415206825843</v>
+        <v>1675.755793527291</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>192.2460717520731</v>
+        <v>244.0711152376289</v>
       </c>
       <c r="G11">
-        <v>-104.6672803859754</v>
+        <v>-57.55306628797069</v>
       </c>
       <c r="H11">
-        <v>1149.454782526175</v>
+        <v>1302.578478917932</v>
       </c>
       <c r="I11">
-        <v>-1299.7485516104</v>
+        <v>-284.8900586112075</v>
       </c>
       <c r="J11">
-        <v>1038.557732586726</v>
+        <v>1728.768211297624</v>
       </c>
       <c r="K11">
-        <v>998.4385628947557</v>
+        <v>1828.28466246837</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>159.6681751630991</v>
+        <v>202.7109798647651</v>
       </c>
       <c r="G12">
-        <v>-78.86111888529877</v>
+        <v>-43.36311391689976</v>
       </c>
       <c r="H12">
-        <v>1278.383874123425</v>
+        <v>1448.682755983909</v>
       </c>
       <c r="I12">
-        <v>-1260.009851747482</v>
+        <v>-276.1797888293694</v>
       </c>
       <c r="J12">
-        <v>1006.212602151435</v>
+        <v>1674.926974039168</v>
       </c>
       <c r="K12">
-        <v>1074.825461135116</v>
+        <v>1968.160063576153</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>139.1026168007206</v>
+        <v>176.6014280843598</v>
       </c>
       <c r="G13">
-        <v>-53.05495738462216</v>
+        <v>-29.17316154582882</v>
       </c>
       <c r="H13">
-        <v>1370.520781903808</v>
+        <v>1553.093607992383</v>
       </c>
       <c r="I13">
-        <v>-1219.292622959372</v>
+        <v>-267.2550366674546</v>
       </c>
       <c r="J13">
-        <v>973.8674717161443</v>
+        <v>1621.085736780711</v>
       </c>
       <c r="K13">
-        <v>1144.302215403665</v>
+        <v>2095.381996850641</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>124.7602798793002</v>
+        <v>158.3927326575979</v>
       </c>
       <c r="G14">
-        <v>-27.24879588394555</v>
+        <v>-14.98320917475788</v>
       </c>
       <c r="H14">
-        <v>1442.267742630007</v>
+        <v>1634.398282513226</v>
       </c>
       <c r="I14">
-        <v>-1177.57276987152</v>
+        <v>-258.1105206941742</v>
       </c>
       <c r="J14">
-        <v>941.5223412808533</v>
+        <v>1567.244499522255</v>
       </c>
       <c r="K14">
-        <v>1206.868825700403</v>
+        <v>2209.950462291833</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>114.0604670319349</v>
+        <v>144.8085005810213</v>
       </c>
       <c r="G15">
-        <v>-1.442634383268963</v>
+        <v>-0.7932568036869475</v>
       </c>
       <c r="H15">
-        <v>1501.034068666316</v>
+        <v>1700.993117511207</v>
       </c>
       <c r="I15">
-        <v>-1134.82560378294</v>
+        <v>-248.7408294278523</v>
       </c>
       <c r="J15">
-        <v>909.1772108455624</v>
+        <v>1513.403262263799</v>
       </c>
       <c r="K15">
-        <v>1262.525292025328</v>
+        <v>2311.865459899727</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>105.6947075698616</v>
+        <v>134.1875280789085</v>
       </c>
       <c r="G16">
-        <v>24.36352711740765</v>
+        <v>13.39669556738399</v>
       </c>
       <c r="H16">
-        <v>1550.804857085182</v>
+        <v>1757.394081567152</v>
       </c>
       <c r="I16">
-        <v>-1091.0258280561</v>
+        <v>-239.140418134055</v>
       </c>
       <c r="J16">
-        <v>876.8320804102714</v>
+        <v>1459.562025005343</v>
       </c>
       <c r="K16">
-        <v>1311.271614378443</v>
+        <v>2401.126989674327</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>98.92619903412439</v>
+        <v>125.5943879863335</v>
       </c>
       <c r="G17">
-        <v>50.16968861808426</v>
+        <v>27.58664793845493</v>
       </c>
       <c r="H17">
-        <v>1593.971951427084</v>
+        <v>1806.311645739278</v>
       </c>
       <c r="I17">
-        <v>-1046.147523147042</v>
+        <v>-229.3036055443644</v>
       </c>
       <c r="J17">
-        <v>844.4869499749805</v>
+        <v>1405.720787746886</v>
       </c>
       <c r="K17">
-        <v>1353.107792759746</v>
+        <v>2477.73505161563</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>93.30592519476204</v>
+        <v>118.4590198021498</v>
       </c>
       <c r="G18">
-        <v>75.97585011876085</v>
+        <v>41.77660030952586</v>
       </c>
       <c r="H18">
-        <v>1632.084224187345</v>
+        <v>1849.501014329369</v>
       </c>
       <c r="I18">
-        <v>-1000.164131266881</v>
+        <v>-219.2245704943544</v>
       </c>
       <c r="J18">
-        <v>812.1418195396893</v>
+        <v>1351.87955048843</v>
       </c>
       <c r="K18">
-        <v>1388.033827169238</v>
+        <v>2541.689645723637</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>88.54316598896659</v>
+        <v>112.4123321358036</v>
       </c>
       <c r="G19">
-        <v>101.7820116194375</v>
+        <v>55.96655268059682</v>
       </c>
       <c r="H19">
-        <v>1666.202377597694</v>
+        <v>1888.164190165717</v>
       </c>
       <c r="I19">
-        <v>-953.0484406656166</v>
+        <v>-208.89734847878</v>
       </c>
       <c r="J19">
-        <v>779.7966891043983</v>
+        <v>1298.038313229973</v>
       </c>
       <c r="K19">
-        <v>1416.049717606918</v>
+        <v>2592.990771998348</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>84.4405135897065</v>
+        <v>107.2037006283099</v>
       </c>
       <c r="G20">
-        <v>127.5881731201141</v>
+        <v>70.15650505166775</v>
       </c>
       <c r="H20">
-        <v>1697.084725165111</v>
+        <v>1923.160504880572</v>
       </c>
       <c r="I20">
-        <v>-904.7725695289362</v>
+        <v>-198.3158281219422</v>
       </c>
       <c r="J20">
-        <v>747.4515586691074</v>
+        <v>1244.197075971517</v>
       </c>
       <c r="K20">
-        <v>1437.155464072787</v>
+        <v>2631.638430439763</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>80.85868605398737</v>
+        <v>102.6562961832441</v>
       </c>
       <c r="G21">
-        <v>153.3943346207907</v>
+        <v>84.34645742273868</v>
       </c>
       <c r="H21">
-        <v>1725.292223455132</v>
+        <v>1955.125642418167</v>
       </c>
       <c r="I21">
-        <v>-855.3079494785023</v>
+        <v>-187.4737475611375</v>
       </c>
       <c r="J21">
-        <v>715.1064282338164</v>
+        <v>1190.355838713061</v>
       </c>
       <c r="K21">
-        <v>1451.351066566844</v>
+        <v>2657.632621047883</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>77.69627087497476</v>
+        <v>98.64136785440193</v>
       </c>
       <c r="G22">
-        <v>179.2004961214673</v>
+        <v>98.53640979380963</v>
       </c>
       <c r="H22">
-        <v>1751.251523179054</v>
+        <v>1984.543089421909</v>
       </c>
       <c r="I22">
-        <v>-804.6253086659423</v>
+        <v>-176.3646907410541</v>
       </c>
       <c r="J22">
-        <v>682.7612977985254</v>
+        <v>1136.514601454605</v>
       </c>
       <c r="K22">
-        <v>1458.63652508909</v>
+        <v>2670.973343822706</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>74.87746183364646</v>
+        <v>95.06267383954496</v>
       </c>
       <c r="G23">
-        <v>205.0066576221439</v>
+        <v>112.7263621648806</v>
       </c>
       <c r="H23">
-        <v>1775.294692847103</v>
+        <v>2011.78915064212</v>
       </c>
       <c r="I23">
-        <v>-752.6946544505474</v>
+        <v>-164.982083616921</v>
       </c>
       <c r="J23">
-        <v>650.4161673632344</v>
+        <v>1082.673364196148</v>
       </c>
       <c r="K23">
-        <v>1459.011839639525</v>
+        <v>2671.660598764233</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>72.34431673832182</v>
+        <v>91.84665208763134</v>
       </c>
       <c r="G24">
-        <v>230.8128191228205</v>
+        <v>126.9163145359515</v>
       </c>
       <c r="H24">
-        <v>1797.685261917175</v>
+        <v>2037.162461401944</v>
       </c>
       <c r="I24">
-        <v>-699.4852556504247</v>
+        <v>-153.3191902641628</v>
       </c>
       <c r="J24">
-        <v>618.0710369279433</v>
+        <v>1028.832126937692</v>
       </c>
       <c r="K24">
-        <v>1452.477010218148</v>
+        <v>2659.694385872464</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>70.05169266803405</v>
+        <v>88.93599020228784</v>
       </c>
       <c r="G25">
-        <v>256.6189806234971</v>
+        <v>141.1062669070224</v>
       </c>
       <c r="H25">
-        <v>1818.635874663244</v>
+        <v>2060.903993211658</v>
       </c>
       <c r="I25">
-        <v>-644.9656243565977</v>
+        <v>-141.3691088922579</v>
       </c>
       <c r="J25">
-        <v>585.7259064926524</v>
+        <v>974.9908896792357</v>
       </c>
       <c r="K25">
-        <v>1439.03203682496</v>
+        <v>2635.0747051474</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>67.96383036984903</v>
+        <v>86.28528907255138</v>
       </c>
       <c r="G26">
-        <v>282.4251421241737</v>
+        <v>155.2962192780934</v>
       </c>
       <c r="H26">
-        <v>1838.320602326348</v>
+        <v>2083.211006072979</v>
       </c>
       <c r="I26">
-        <v>-589.1034972993015</v>
+        <v>-129.1247677604432</v>
       </c>
       <c r="J26">
-        <v>553.3807760573613</v>
+        <v>921.1496524207794</v>
       </c>
       <c r="K26">
-        <v>1418.67691945996</v>
+        <v>2597.801556589039</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>66.0519892825159</v>
+        <v>83.85806035422266</v>
       </c>
       <c r="G27">
-        <v>308.2313036248503</v>
+        <v>169.4861716491643</v>
       </c>
       <c r="H27">
-        <v>1856.883742922286</v>
+        <v>2104.247020546082</v>
       </c>
       <c r="I27">
-        <v>-531.8658167554341</v>
+        <v>-116.5789209928448</v>
       </c>
       <c r="J27">
-        <v>521.0356456220703</v>
+        <v>867.3084151623229</v>
       </c>
       <c r="K27">
-        <v>1391.411658123149</v>
+        <v>2547.874940197382</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>64.2927718188877</v>
+        <v>81.62459901802961</v>
       </c>
       <c r="G28">
-        <v>334.0374651255269</v>
+        <v>183.6761240202352</v>
       </c>
       <c r="H28">
-        <v>1874.446246459481</v>
+        <v>2124.149098897693</v>
       </c>
       <c r="I28">
-        <v>-473.2187109858747</v>
+        <v>-103.7241442905618</v>
       </c>
       <c r="J28">
-        <v>488.6905151867794</v>
+        <v>813.4671779038667</v>
       </c>
       <c r="K28">
-        <v>1357.236252814526</v>
+        <v>2485.294855972429</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>62.66691163272215</v>
+        <v>79.56044496150542</v>
       </c>
       <c r="G29">
-        <v>359.8436266262036</v>
+        <v>197.8660763913062</v>
       </c>
       <c r="H29">
-        <v>1891.110495279056</v>
+        <v>2143.033262250345</v>
       </c>
       <c r="I29">
-        <v>-413.1274741910872</v>
+        <v>-90.55283053816267</v>
       </c>
       <c r="J29">
-        <v>456.3453847514883</v>
+        <v>759.6259406454103</v>
       </c>
       <c r="K29">
-        <v>1316.150703534092</v>
+        <v>2410.06130391418</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>61.15838142236154</v>
+        <v>77.64525029741263</v>
       </c>
       <c r="G30">
-        <v>385.6497881268801</v>
+        <v>212.0560287623771</v>
       </c>
       <c r="H30">
-        <v>1906.9639203125</v>
+        <v>2160.998588576902</v>
       </c>
       <c r="I30">
-        <v>-351.5565459731525</v>
+        <v>-77.05718530199718</v>
       </c>
       <c r="J30">
-        <v>424.0002543161973</v>
+        <v>705.7847033869539</v>
       </c>
       <c r="K30">
-        <v>1268.155010281846</v>
+        <v>2322.174284022635</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>59.75372530647684</v>
+        <v>75.86193175360661</v>
       </c>
       <c r="G31">
-        <v>411.4559496275567</v>
+        <v>226.2459811334481</v>
       </c>
       <c r="H31">
-        <v>1922.081777682442</v>
+        <v>2178.13035918397</v>
       </c>
       <c r="I31">
-        <v>-288.4694902920666</v>
+        <v>-63.22922221765712</v>
       </c>
       <c r="J31">
-        <v>391.6551238809064</v>
+        <v>651.9434661284978</v>
       </c>
       <c r="K31">
-        <v>1213.24917305779</v>
+        <v>2221.633796297795</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>58.4415519293198</v>
+        <v>74.19602713132197</v>
       </c>
       <c r="G32">
-        <v>437.2621111282334</v>
+        <v>240.435933504519</v>
       </c>
       <c r="H32">
-        <v>1936.529309252283</v>
+        <v>2194.50250707743</v>
       </c>
       <c r="I32">
-        <v>-223.8289739038609</v>
+        <v>-49.06075826385796</v>
       </c>
       <c r="J32">
-        <v>359.3099934456153</v>
+        <v>598.1022288700414</v>
       </c>
       <c r="K32">
-        <v>1151.433191861922</v>
+        <v>2108.439840739657</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>57.21214450602747</v>
+        <v>72.6352002278139</v>
       </c>
       <c r="G33">
-        <v>463.0682726289099</v>
+        <v>254.6258858755899</v>
       </c>
       <c r="H33">
-        <v>1950.363444200805</v>
+        <v>2210.179545210925</v>
       </c>
       <c r="I33">
-        <v>-157.59674426778</v>
+        <v>-34.54340891994424</v>
       </c>
       <c r="J33">
-        <v>326.9648630103244</v>
+        <v>544.2609916115852</v>
       </c>
       <c r="K33">
-        <v>1082.707066694242</v>
+        <v>1982.592417348225</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>56.05715722356705</v>
+        <v>71.16885539410026</v>
       </c>
       <c r="G34">
-        <v>488.8744341295865</v>
+        <v>268.8158382466609</v>
       </c>
       <c r="H34">
-        <v>1963.634153871214</v>
+        <v>2225.218101820044</v>
       </c>
       <c r="I34">
-        <v>-89.7336069094444</v>
+        <v>-19.66858320415313</v>
       </c>
       <c r="J34">
-        <v>294.6197325750334</v>
+        <v>490.4197543531288</v>
       </c>
       <c r="K34">
-        <v>1007.070797554751</v>
+        <v>1844.091526123496</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>54.9693762814457</v>
+        <v>69.78783415783703</v>
       </c>
       <c r="G35">
-        <v>514.6805956302632</v>
+        <v>283.0057906177318</v>
       </c>
       <c r="H35">
-        <v>1976.38554136682</v>
+        <v>2239.668155167611</v>
       </c>
       <c r="I35">
-        <v>-20.19940222660173</v>
+        <v>-4.427478589699453</v>
       </c>
       <c r="J35">
-        <v>262.2746021397423</v>
+        <v>436.5785170946723</v>
       </c>
       <c r="K35">
-        <v>924.5243844434483</v>
+        <v>1692.93716706547</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>53.94252992005676</v>
+        <v>68.48417403975091</v>
       </c>
       <c r="G36">
-        <v>540.4867571309397</v>
+        <v>297.1957429888028</v>
       </c>
       <c r="H36">
-        <v>1988.656725870033</v>
+        <v>2253.574035666527</v>
       </c>
       <c r="I36">
-        <v>51.04701827626083</v>
+        <v>11.18892420432605</v>
       </c>
       <c r="J36">
-        <v>229.9294717044514</v>
+        <v>382.7372798362162</v>
       </c>
       <c r="K36">
-        <v>835.0678273603345</v>
+        <v>1529.12934017415</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>52.97113599897654</v>
+        <v>67.25091504261073</v>
       </c>
       <c r="G37">
-        <v>566.2929186316163</v>
+        <v>311.3856953598737</v>
       </c>
       <c r="H37">
-        <v>2000.482566412684</v>
+        <v>2266.975246066573</v>
       </c>
       <c r="I37">
-        <v>124.0478163385013</v>
+        <v>27.18986655032726</v>
       </c>
       <c r="J37">
-        <v>197.5843412691603</v>
+        <v>328.8960425777598</v>
       </c>
       <c r="K37">
-        <v>738.7011263054092</v>
+        <v>1352.668045449533</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>52.05037866091671</v>
+        <v>66.08194306666672</v>
       </c>
       <c r="G38">
-        <v>592.099080132293</v>
+        <v>325.5756477309446</v>
       </c>
       <c r="H38">
-        <v>2011.89425885283</v>
+        <v>2279.907137957002</v>
       </c>
       <c r="I38">
-        <v>198.8461918935223</v>
+        <v>43.58481738100187</v>
       </c>
       <c r="J38">
-        <v>165.2392108338694</v>
+        <v>275.0548053193036</v>
       </c>
       <c r="K38">
-        <v>635.4242812786728</v>
+        <v>1163.55328289162</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>51.17600774403912</v>
+        <v>64.97186220587868</v>
       </c>
       <c r="G39">
-        <v>617.9052416329696</v>
+        <v>339.7656001020156</v>
       </c>
       <c r="H39">
-        <v>2022.919831812963</v>
+        <v>2292.401473770757</v>
       </c>
       <c r="I39">
-        <v>275.4864086333412</v>
+        <v>60.38347879280347</v>
       </c>
       <c r="J39">
-        <v>132.8940803985784</v>
+        <v>221.2135680608472</v>
       </c>
       <c r="K39">
-        <v>525.2372922801242</v>
+        <v>961.7850525004108</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>50.34425614640156</v>
+        <v>63.91588983574941</v>
       </c>
       <c r="G40">
-        <v>643.7114031336462</v>
+        <v>353.9555524730865</v>
       </c>
       <c r="H40">
-        <v>2033.584561430485</v>
+        <v>2304.486896785599</v>
       </c>
       <c r="I40">
-        <v>354.0138202026724</v>
+        <v>77.59579178738572</v>
       </c>
       <c r="J40">
-        <v>100.5489499632873</v>
+        <v>167.3723308023908</v>
       </c>
       <c r="K40">
-        <v>408.1401593097646</v>
+        <v>747.3633542759057</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>49.55177147611256</v>
+        <v>62.90976983796029</v>
       </c>
       <c r="G41">
-        <v>669.5175646343228</v>
+        <v>368.1455048441575</v>
       </c>
       <c r="H41">
-        <v>2043.911320365151</v>
+        <v>2316.189326624298</v>
       </c>
       <c r="I41">
-        <v>434.4748970380031</v>
+        <v>95.2319421544217</v>
       </c>
       <c r="J41">
-        <v>68.20381952799639</v>
+        <v>113.5310935439346</v>
       </c>
       <c r="K41">
-        <v>284.1328823675937</v>
+        <v>520.2881882181051</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>48.79555915823124</v>
+        <v>61.94970037022235</v>
       </c>
       <c r="G42">
-        <v>695.3237261349993</v>
+        <v>382.3354572152284</v>
       </c>
       <c r="H42">
-        <v>2053.920873185446</v>
+        <v>2327.532293990665</v>
       </c>
       <c r="I42">
-        <v>516.9172538675722</v>
+        <v>113.3023664992855</v>
       </c>
       <c r="J42">
-        <v>35.85868909270533</v>
+        <v>59.68985628547821</v>
       </c>
       <c r="K42">
-        <v>153.2154614536111</v>
+        <v>280.5595543270078</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>48.07293479656945</v>
+        <v>61.03227338593458</v>
       </c>
       <c r="G43">
-        <v>721.129887635676</v>
+        <v>396.5254095862994</v>
       </c>
       <c r="H43">
-        <v>2063.632127725833</v>
+        <v>2338.537225511157</v>
       </c>
       <c r="I43">
-        <v>601.3896778884912</v>
+        <v>131.8177584191558</v>
       </c>
       <c r="J43">
-        <v>3.513558657414268</v>
+        <v>5.8486190270218</v>
       </c>
       <c r="K43">
-        <v>15.38789656781709</v>
+        <v>28.17745260261465</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>47.38148406268677</v>
+        <v>60.15442371019054</v>
       </c>
       <c r="G44">
-        <v>746.9360491363526</v>
+        <v>410.7153619573702</v>
       </c>
       <c r="H44">
-        <v>2073.062350062776</v>
+        <v>2349.223687348757</v>
       </c>
       <c r="I44">
-        <v>687.9421576377196</v>
+        <v>150.7890748312046</v>
       </c>
       <c r="J44">
-        <v>-28.83157177787664</v>
+        <v>-47.99261823143436</v>
       </c>
       <c r="K44">
-        <v>-129.3498122897879</v>
+        <v>-236.8581169550738</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>46.71902874604588</v>
+        <v>59.31338593784971</v>
       </c>
       <c r="G45">
-        <v>772.7422106370291</v>
+        <v>424.9053143284412</v>
       </c>
       <c r="H45">
-        <v>2082.227349251133</v>
+        <v>2359.609594548879</v>
       </c>
       <c r="I45">
-        <v>776.6259125739517</v>
+        <v>170.2275424566091</v>
       </c>
       <c r="J45">
-        <v>-61.1767022131677</v>
+        <v>-101.8338554898908</v>
       </c>
       <c r="K45">
-        <v>-280.9976651192047</v>
+        <v>-514.547154346059</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>46.08359787750936</v>
+        <v>58.50665777260463</v>
       </c>
       <c r="G46">
-        <v>798.5483721377059</v>
+        <v>439.0952666995122</v>
       </c>
       <c r="H46">
-        <v>2091.141636785932</v>
+        <v>2369.711391743718</v>
       </c>
       <c r="I46">
-        <v>867.4934233879308</v>
+        <v>190.144664464227</v>
       </c>
       <c r="J46">
-        <v>-93.52183264845875</v>
+        <v>-155.6750927483472</v>
       </c>
       <c r="K46">
-        <v>-439.5556619204334</v>
+        <v>-804.8896595703409</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>45.47340305407248</v>
+        <v>57.7319686998389</v>
       </c>
       <c r="G47">
-        <v>824.3545336383823</v>
+        <v>453.2852190705831</v>
       </c>
       <c r="H47">
-        <v>2099.818564828788</v>
+        <v>2379.544209792378</v>
       </c>
       <c r="I47">
-        <v>960.5984630591267</v>
+        <v>210.5522272778663</v>
       </c>
       <c r="J47">
-        <v>-125.8669630837498</v>
+        <v>-209.5163300068036</v>
       </c>
       <c r="K47">
-        <v>-605.023802693473</v>
+        <v>-1107.885632627918</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>44.88681726121234</v>
+        <v>56.98725309997709</v>
       </c>
       <c r="G48">
-        <v>850.1606951390589</v>
+        <v>467.475171441654</v>
       </c>
       <c r="H48">
-        <v>2108.270446504554</v>
+        <v>2389.122002102763</v>
       </c>
       <c r="I48">
-        <v>1055.99612867716</v>
+        <v>231.4623075511777</v>
       </c>
       <c r="J48">
-        <v>-158.2120935190406</v>
+        <v>-263.3575672652595</v>
       </c>
       <c r="K48">
-        <v>-777.4020874383231</v>
+        <v>-1423.535073518789</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>44.32235662176699</v>
+        <v>56.2706270772886</v>
       </c>
       <c r="G49">
-        <v>875.9668566397356</v>
+        <v>481.665123812725</v>
       </c>
       <c r="H49">
-        <v>2116.508660988678</v>
+        <v>2398.457663718044</v>
       </c>
       <c r="I49">
-        <v>1153.742874046794</v>
+        <v>252.8872793142985</v>
       </c>
       <c r="J49">
-        <v>-190.5572239543316</v>
+        <v>-317.1988045237159</v>
       </c>
       <c r="K49">
-        <v>-956.6905161549855</v>
+        <v>-1751.837982242959</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>43.7786646051936</v>
+        <v>55.58036841233135</v>
       </c>
       <c r="G50">
-        <v>901.7730181404122</v>
+        <v>495.8550761837959</v>
       </c>
       <c r="H50">
-        <v>2124.54374563597</v>
+        <v>2407.563135718295</v>
       </c>
       <c r="I50">
-        <v>1253.896543095799</v>
+        <v>274.8398212964735</v>
       </c>
       <c r="J50">
-        <v>-222.9023543896227</v>
+        <v>-371.0400417821724</v>
       </c>
       <c r="K50">
-        <v>-1142.88908884346</v>
+        <v>-2092.794358800425</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>43.2544983146655</v>
+        <v>54.91489915237085</v>
       </c>
       <c r="G51">
-        <v>927.5791796410888</v>
+        <v>510.0450285548668</v>
       </c>
       <c r="H51">
-        <v>2132.385477022269</v>
+        <v>2416.449497058059</v>
       </c>
       <c r="I51">
-        <v>1356.516404105449</v>
+        <v>297.3329244289912</v>
       </c>
       <c r="J51">
-        <v>-255.2474848249138</v>
+        <v>-424.8812790406288</v>
       </c>
       <c r="K51">
-        <v>-1335.997805503745</v>
+        <v>-2446.404203191186</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>42.7487165364837</v>
+        <v>54.27277043919275</v>
       </c>
       <c r="G52">
-        <v>953.3853411417655</v>
+        <v>524.2349809259377</v>
       </c>
       <c r="H52">
-        <v>2140.042942462567</v>
+        <v>2425.127045611704</v>
       </c>
       <c r="I52">
-        <v>1461.663184783922</v>
+        <v>320.3798995328719</v>
       </c>
       <c r="J52">
-        <v>-287.5926152602048</v>
+        <v>-478.7225162990852</v>
       </c>
       <c r="K52">
-        <v>-1536.016666135842</v>
+        <v>-2812.667515415243</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>42.2602692902893</v>
+        <v>53.65264924229694</v>
       </c>
       <c r="G53">
-        <v>979.1915026424421</v>
+        <v>538.4249332970087</v>
       </c>
       <c r="H53">
-        <v>2147.524603317794</v>
+        <v>2433.605369913564</v>
       </c>
       <c r="I53">
-        <v>1569.399108203336</v>
+        <v>343.9943851958569</v>
       </c>
       <c r="J53">
-        <v>-319.9377456954956</v>
+        <v>-532.5637535575411</v>
       </c>
       <c r="K53">
-        <v>-1742.945670739749</v>
+        <v>-3191.584295472594</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>41.78818866233688</v>
+        <v>53.05330672103585</v>
       </c>
       <c r="G54">
-        <v>1004.997664143119</v>
+        <v>552.6148856680796</v>
       </c>
       <c r="H54">
-        <v>2154.838351196241</v>
+        <v>2441.893412846197</v>
       </c>
       <c r="I54">
-        <v>1679.787929621722</v>
+        <v>368.1903558433648</v>
       </c>
       <c r="J54">
-        <v>-352.2828761307866</v>
+        <v>-586.4049908159975</v>
       </c>
       <c r="K54">
-        <v>-1956.784819315469</v>
+        <v>-3583.154543363244</v>
       </c>
     </row>
   </sheetData>
